--- a/loaded_influencer_data/life.with.loz/life.with.loz_video.xlsx
+++ b/loaded_influencer_data/life.with.loz/life.with.loz_video.xlsx
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18.38469713071201</v>
+        <v>18.40168243953733</v>
       </c>
       <c r="I2" t="n">
-        <v>13.07120085015941</v>
+        <v>13.1440588853838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.313496280552603</v>
+        <v>5.257623554153523</v>
       </c>
       <c r="L2" t="n">
-        <v>1.912858660998938</v>
+        <v>1.892744479495268</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20.28542303771662</v>
+        <v>20.28397565922921</v>
       </c>
       <c r="I3" t="n">
-        <v>15.69826707441386</v>
+        <v>15.72008113590264</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.587155963302752</v>
+        <v>4.563894523326572</v>
       </c>
       <c r="L3" t="n">
-        <v>1.732925586136595</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -616,39 +616,39 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1048</v>
+        <v>1078</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>im just a girl who’s obsessed with @byoma 🥹 #fyp #aesthetic #cleangirl #girly #thatgirl #viral #beauty</t>
+          <t>if u struggle with redness on your skin you NEED to try this 😍 @drjart_kr #aesthetic #Lifestyle #microinfluencer</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.92748091603053</v>
+        <v>12.15213358070501</v>
       </c>
       <c r="I4" t="n">
-        <v>9.923664122137405</v>
+        <v>10.01855287569573</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.003816793893129</v>
+        <v>2.133580705009277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8587786259541985</v>
+        <v>0.7421150278293136</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1033</v>
+        <v>1069</v>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -678,28 +678,27 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>geneva is absolutely stunning 😍☁️✈️
-#aesthetic #Lifestyle #lifestyleaesthetic #microinfluencer #ugccreator #ugc</t>
+          <t>if u struggle with redness on your skin you NEED to try this 😍 @drjart_kr #aesthetic #Lifestyle #microinfluencer</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.7783155856728</v>
+        <v>12.53507951356408</v>
       </c>
       <c r="I5" t="n">
-        <v>11.81026137463698</v>
+        <v>11.59962581852198</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9680542110358179</v>
+        <v>0.9354536950420954</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5808325266214909</v>
+        <v>0.4677268475210477</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -717,7 +716,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C6" t="n">
         <v>78</v>
@@ -729,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -738,19 +737,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22.48803827751196</v>
+        <v>22.16981132075472</v>
       </c>
       <c r="I6" t="n">
-        <v>18.66028708133971</v>
+        <v>18.39622641509434</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.827751196172249</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="L6" t="n">
-        <v>1.196172248803828</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -768,7 +767,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C7" t="n">
         <v>123</v>
@@ -780,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>life lately 💌 im so glad its finally spring 😭☁️
-#teamwork #girlssupportgirls #girlythings #girlytok #sephora</t>
+          <t>looking for new besties 🎀
+#firstofthemonth #teamwork #girlssupportgirls #girlythings #girlytok #sephora</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>21.62162162162162</v>
+        <v>21.55688622754491</v>
       </c>
       <c r="I7" t="n">
-        <v>18.46846846846847</v>
+        <v>18.41317365269461</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.153153153153153</v>
+        <v>3.143712574850299</v>
       </c>
       <c r="L7" t="n">
-        <v>2.252252252252252</v>
+        <v>2.095808383233533</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -822,37 +821,37 @@
         <v>195</v>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>looking for new besties 🎀
-#firstofthemonth #teamwork #girlssupportgirls #girlythings #girlytok #sephora</t>
+          <t>thank u sm @Bubble Skincare @Bubble Insiders 🫧
+#microinfluencer #fyp #ugc #ugccreator #skincare</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>73.84615384615385</v>
+        <v>30.25641025641026</v>
       </c>
       <c r="I8" t="n">
-        <v>63.07692307692307</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.76923076923077</v>
+        <v>3.589743589743589</v>
       </c>
       <c r="L8" t="n">
-        <v>7.692307692307693</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -870,72 +869,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>thank u sm @Bubble Skincare @Bubble Insiders 🫧
-#microinfluencer #fyp #ugc #ugccreator #skincare</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.01694915254237</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.483050847457627</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@life.with.loz/video/7475496638446947606</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>442</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>shades:
 flawless filter - 2 fair
@@ -946,27 +894,78 @@
 nyx blush - 02</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>16.91331923890063</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.47357293868922</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.439746300211417</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.902748414376321</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@life.with.loz/video/7475496638446947606</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>442</v>
+      </c>
+      <c r="C10" t="n">
+        <v>111</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>i love being a girly girl 💌
+#microinfluencer #fyp #ugc #ugccreator #beauty #skincare #makeup #viral</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>18.09954751131222</v>
+        <v>30.31674208144796</v>
       </c>
       <c r="I10" t="n">
-        <v>13.34841628959276</v>
+        <v>25.1131221719457</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.751131221719457</v>
+        <v>5.203619909502263</v>
       </c>
       <c r="L10" t="n">
-        <v>2.262443438914027</v>
+        <v>1.809954751131222</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-26</t>
         </is>
       </c>
     </row>
